--- a/data/enge/AY/Output/glosario.xlsx
+++ b/data/enge/AY/Output/glosario.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t xml:space="preserve">indic.sector.origen</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Descripción</t>
   </si>
   <si>
-    <t xml:space="preserve">Unidad.medida</t>
+    <t xml:space="preserve">Unidad</t>
   </si>
   <si>
     <t xml:space="preserve">Observaciones</t>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">Valor Bruto de la Producción</t>
   </si>
   <si>
-    <t xml:space="preserve">$millones</t>
+    <t xml:space="preserve">pesos</t>
   </si>
   <si>
     <t xml:space="preserve">VAB</t>
@@ -396,9 +396,6 @@
   </si>
   <si>
     <t xml:space="preserve">Salario medio mensual = (Salarios / Asalariados ) / 13 meses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$</t>
   </si>
   <si>
     <t xml:space="preserve">contribuciones.sobre.costo.salarial</t>
@@ -1434,16 +1431,16 @@
         <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="D60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
         <v>129</v>
-      </c>
-      <c r="B61" t="s">
-        <v>130</v>
       </c>
       <c r="C61" t="s">
         <v>92</v>
@@ -1452,22 +1449,22 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" t="s">
         <v>131</v>
       </c>
-      <c r="B62" t="s">
-        <v>132</v>
-      </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="D62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" t="s">
         <v>133</v>
-      </c>
-      <c r="B63" t="s">
-        <v>134</v>
       </c>
       <c r="C63" t="s">
         <v>92</v>
@@ -1476,22 +1473,22 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" t="s">
         <v>135</v>
       </c>
-      <c r="B64" t="s">
-        <v>136</v>
-      </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
         <v>137</v>
-      </c>
-      <c r="B65" t="s">
-        <v>138</v>
       </c>
       <c r="C65" t="s">
         <v>92</v>

--- a/data/enge/AY/Output/glosario.xlsx
+++ b/data/enge/AY/Output/glosario.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t xml:space="preserve">indic.sector.origen</t>
   </si>
@@ -426,6 +426,138 @@
   </si>
   <si>
     <t xml:space="preserve">Tasa de inversión = Inversión bruta interna / Valor agregado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ahorro_bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahorro bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B8n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBK_total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formación bruta de capital por tipo de activo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P5g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBK_edificios_subtotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edificios y estructuras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P51g AN112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBK_maq.equip_subtotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquinaria y equipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P51g AN113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBK_maq.equip_transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipo de transporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P51g AN1131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBK_maq.equip_infor.telec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipo para  la informática y la telecomunicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P51g AN1132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBK_maq.equip_otros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otras maquinarias y equipos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P51g AN1139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBK_prop.intelect_subtotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Productos de propiedad intelectual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P51g AN117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBK_prop.intelect_explor.minera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploración y evaluación minera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P51g AN1172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBK_prop.intelect_informat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programas de informática y bases de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P51g AN1173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBK_prop.intelect_espar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Originales para esparcimiento, literarios o artísticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P51g AN1174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBK_prop.intelect_otros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otros productos de propiedad intelectual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P52 AN12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBK_var.stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambios en existencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adquisiciones.netas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adquisiciones menos disposiciones de activos no producidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acreedor_o_deudor_neto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préstamo neto (+) / endeudamiento neto (–)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B9</t>
   </si>
 </sst>
 </file>
@@ -1495,6 +1627,186 @@
       </c>
       <c r="D65"/>
     </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B78" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>176</v>
+      </c>
+      <c r="B79" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>179</v>
+      </c>
+      <c r="B80" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
